--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-317790.2662893184</v>
+        <v>-319714.8698561757</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155033</v>
+        <v>3180051.965155035</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>228.0767087417152</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>222.4795457699687</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>20.75911149906585</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>141.8018131951025</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.280320025462168</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>21.57990476584689</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>341.8733101690323</v>
+        <v>296.5044059711541</v>
       </c>
       <c r="G5" t="n">
-        <v>104.6606979218575</v>
+        <v>14.93452779272217</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961063</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470835</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656319</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
         <v>221.484011504269</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3161961300435</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>82.61362792373491</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>78.38231158671005</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.023804751134</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>151.1030235860746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.4036865832011</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>77.32660557441353</v>
       </c>
       <c r="K7" t="n">
-        <v>3.080181780086292</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>169.866918177912</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>141.3461892334076</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>68.09993113946129</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>67.41850321461142</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>91.77680754856955</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527401</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.6377622397965</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>171.247754593081</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>185.1778893774797</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>39.28557702533141</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>98.7587946103268</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.273441302674507</v>
+        <v>118.4898845065124</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>24.14930108285637</v>
       </c>
       <c r="G25" t="n">
-        <v>41.77916877344166</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809756</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="26">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.07710388470012</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>37.96596057298643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W28" t="n">
-        <v>268.1219127937386</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>87.85364677412683</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.3855475298666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56326686094046</v>
       </c>
       <c r="S31" t="n">
         <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
-        <v>267.8362668557249</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937386</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X31" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092425</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,7 +3272,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F35" t="n">
         <v>338.7441556120708</v>
@@ -3281,10 +3281,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310008</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555816</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U35" t="n">
         <v>182.9467051201603</v>
@@ -3326,10 +3326,10 @@
         <v>259.6203683404942</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X35" t="n">
-        <v>301.599210548827</v>
+        <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
         <v>318.1060485264129</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,10 +3518,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310006</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>64.81847467555819</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X38" t="n">
-        <v>301.5992105488275</v>
+        <v>301.599210548827</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
         <v>13.64724492310009</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555818</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201593</v>
       </c>
       <c r="V41" t="n">
         <v>259.6203683404942</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C44" t="n">
         <v>297.1410016413669</v>
       </c>
       <c r="D44" t="n">
-        <v>286.5511514910423</v>
+        <v>286.5511514910412</v>
       </c>
       <c r="E44" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F44" t="n">
         <v>338.7441556120708</v>
@@ -3992,10 +3992,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H44" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I44" t="n">
-        <v>13.64724492310012</v>
+        <v>13.64724492310006</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555816</v>
       </c>
       <c r="T44" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201589</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X44" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>579.9844679696338</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C2" t="n">
-        <v>579.9844679696338</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D2" t="n">
-        <v>579.9844679696338</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="E2" t="n">
-        <v>579.9844679696338</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329111</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
         <v>22.09252109618843</v>
@@ -4343,7 +4343,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4358,22 +4358,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>879.8992409003624</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>879.8992409003624</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>879.8992409003624</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W2" t="n">
-        <v>879.8992409003624</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="X2" t="n">
-        <v>879.8992409003624</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="Y2" t="n">
-        <v>858.9304414063565</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317.5614887305547</v>
+        <v>422.8801621312818</v>
       </c>
       <c r="C3" t="n">
-        <v>317.5614887305547</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="D3" t="n">
-        <v>168.6270790693035</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="E3" t="n">
-        <v>168.6270790693035</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>248.4271328501548</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>679.0427979944839</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N3" t="n">
-        <v>952.4377465598157</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>1025.71200399185</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T3" t="n">
-        <v>961.3919000668939</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="U3" t="n">
-        <v>733.1732877010415</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="V3" t="n">
-        <v>733.1732877010415</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="W3" t="n">
-        <v>733.1732877010415</v>
+        <v>798.9469993568828</v>
       </c>
       <c r="X3" t="n">
-        <v>525.3217874955087</v>
+        <v>591.0954991513499</v>
       </c>
       <c r="Y3" t="n">
-        <v>317.5614887305547</v>
+        <v>591.0954991513499</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>177.1948334012702</v>
       </c>
       <c r="I4" t="n">
         <v>22.09252109618843</v>
@@ -4528,10 +4528,10 @@
         <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1015.752255352997</v>
+        <v>341.9346463931957</v>
       </c>
       <c r="C5" t="n">
-        <v>1015.752255352997</v>
+        <v>341.9346463931957</v>
       </c>
       <c r="D5" t="n">
-        <v>1015.752255352997</v>
+        <v>341.9346463931957</v>
       </c>
       <c r="E5" t="n">
-        <v>1015.752255352997</v>
+        <v>341.9346463931957</v>
       </c>
       <c r="F5" t="n">
-        <v>670.4256794246814</v>
+        <v>42.43524642233293</v>
       </c>
       <c r="G5" t="n">
-        <v>564.7078027359365</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="H5" t="n">
-        <v>225.6129802146171</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352258</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488081957</v>
+        <v>46.45889488081991</v>
       </c>
       <c r="K5" t="n">
-        <v>195.8431816943449</v>
+        <v>195.8431816943457</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909766</v>
+        <v>433.4442264909778</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203042</v>
+        <v>714.4277151203061</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090345</v>
+        <v>985.3258128090367</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860203</v>
+        <v>1195.939566860206</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313927</v>
+        <v>1338.01915031393</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676129</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="R5" t="n">
-        <v>1239.473479094683</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="S5" t="n">
-        <v>1239.473479094683</v>
+        <v>1164.837189628898</v>
       </c>
       <c r="T5" t="n">
-        <v>1015.752255352997</v>
+        <v>941.1159658872125</v>
       </c>
       <c r="U5" t="n">
-        <v>1015.752255352997</v>
+        <v>687.261222321512</v>
       </c>
       <c r="V5" t="n">
-        <v>1015.752255352997</v>
+        <v>687.261222321512</v>
       </c>
       <c r="W5" t="n">
-        <v>1015.752255352997</v>
+        <v>341.9346463931957</v>
       </c>
       <c r="X5" t="n">
-        <v>1015.752255352997</v>
+        <v>341.9346463931957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1015.752255352997</v>
+        <v>341.9346463931957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>656.5093167344713</v>
+        <v>517.7141601976239</v>
       </c>
       <c r="C6" t="n">
-        <v>482.0562874533443</v>
+        <v>517.7141601976239</v>
       </c>
       <c r="D6" t="n">
-        <v>333.1218777920931</v>
+        <v>368.7797505363726</v>
       </c>
       <c r="E6" t="n">
-        <v>173.8844227866376</v>
+        <v>368.7797505363726</v>
       </c>
       <c r="F6" t="n">
-        <v>27.34986481352258</v>
+        <v>222.2451925632575</v>
       </c>
       <c r="G6" t="n">
-        <v>27.34986481352258</v>
+        <v>222.2451925632575</v>
       </c>
       <c r="H6" t="n">
-        <v>27.34986481352258</v>
+        <v>110.7979738273963</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352258</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="J6" t="n">
-        <v>45.03769252864012</v>
+        <v>45.03769252864036</v>
       </c>
       <c r="K6" t="n">
-        <v>81.2471808982275</v>
+        <v>201.8898504843347</v>
       </c>
       <c r="L6" t="n">
-        <v>81.2471808982275</v>
+        <v>474.2013299011371</v>
       </c>
       <c r="M6" t="n">
-        <v>419.7017579655694</v>
+        <v>812.6559069684799</v>
       </c>
       <c r="N6" t="n">
-        <v>758.1563350329113</v>
+        <v>1151.110484035823</v>
       </c>
       <c r="O6" t="n">
-        <v>1053.314601553656</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="P6" t="n">
-        <v>1273.202064371583</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676129</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="R6" t="n">
-        <v>1288.319188568341</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="S6" t="n">
-        <v>1118.598173668206</v>
+        <v>1367.493240676133</v>
       </c>
       <c r="T6" t="n">
-        <v>1118.598173668206</v>
+        <v>1214.863923922522</v>
       </c>
       <c r="U6" t="n">
-        <v>1118.598173668206</v>
+        <v>1214.863923922522</v>
       </c>
       <c r="V6" t="n">
-        <v>1118.598173668206</v>
+        <v>979.7118156907793</v>
       </c>
       <c r="W6" t="n">
-        <v>864.3608169400042</v>
+        <v>725.4744589625777</v>
       </c>
       <c r="X6" t="n">
-        <v>656.5093167344713</v>
+        <v>725.4744589625777</v>
       </c>
       <c r="Y6" t="n">
-        <v>656.5093167344713</v>
+        <v>517.7141601976239</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.46115954088247</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="C7" t="n">
-        <v>30.46115954088247</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="D7" t="n">
-        <v>30.46115954088247</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="E7" t="n">
-        <v>30.46115954088247</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="F7" t="n">
-        <v>30.46115954088247</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="G7" t="n">
-        <v>30.46115954088247</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="H7" t="n">
-        <v>30.46115954088247</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="I7" t="n">
-        <v>30.46115954088247</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="J7" t="n">
-        <v>30.46115954088247</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352258</v>
+        <v>27.34986481352265</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953506</v>
+        <v>78.97414292953533</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7938290394782</v>
+        <v>143.7938290394787</v>
       </c>
       <c r="N7" t="n">
-        <v>212.506864314702</v>
+        <v>212.5068643147027</v>
       </c>
       <c r="O7" t="n">
-        <v>259.9581784039146</v>
+        <v>259.9581784039156</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461737</v>
+        <v>277.0402928461747</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461737</v>
+        <v>277.0402928461747</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461737</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0402928461737</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="T7" t="n">
-        <v>277.0402928461737</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0402928461737</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="V7" t="n">
-        <v>277.0402928461737</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="W7" t="n">
-        <v>277.0402928461737</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="X7" t="n">
-        <v>49.05074194815631</v>
+        <v>105.4575472119202</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.05074194815631</v>
+        <v>105.4575472119202</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1365.680170394969</v>
+        <v>2134.371763268271</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1765.409246327859</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1407.143547721108</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1021.355295122864</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.280010459091</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1752.280010459091</v>
+        <v>2520.971603332393</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644252</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644252</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>660.0294860098572</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>660.0294860098572</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>660.0294860098572</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X10" t="n">
-        <v>370.8558756644252</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.8558756644252</v>
+        <v>487.2784796319623</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822455</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.3570368996732</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C13" t="n">
-        <v>410.4208539717663</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>410.4208539717663</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>262.5077603893732</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>262.5077603893732</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,7 +5197,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688071</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>1102.153325455407</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.78763177146</v>
+        <v>812.7361554184462</v>
       </c>
       <c r="X13" t="n">
-        <v>981.798080873443</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.0055017299129</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,28 +5276,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2032.925401907737</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2312.465467126434</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>677.4616523829101</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>677.4616523829101</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705743</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705743</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705743</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1311.867897449337</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488383</v>
+        <v>1311.867897449337</v>
       </c>
       <c r="V16" t="n">
-        <v>859.1101172131498</v>
+        <v>1311.867897449337</v>
       </c>
       <c r="W16" t="n">
-        <v>859.1101172131498</v>
+        <v>1022.450727412377</v>
       </c>
       <c r="X16" t="n">
-        <v>859.1101172131498</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y16" t="n">
-        <v>859.1101172131498</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,13 +5513,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811259</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441653</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>237.7764125461478</v>
+        <v>981.5095496229243</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229243</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5838,7 +5838,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811257</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W22" t="n">
-        <v>755.1831334811257</v>
+        <v>665.6859735286134</v>
       </c>
       <c r="X22" t="n">
-        <v>755.1831334811257</v>
+        <v>437.6964226305961</v>
       </c>
       <c r="Y22" t="n">
-        <v>534.3905543375954</v>
+        <v>216.903843487066</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,22 +6014,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>271.2493253977864</v>
+        <v>532.8153755185775</v>
       </c>
       <c r="C25" t="n">
-        <v>271.2493253977864</v>
+        <v>382.4661476844609</v>
       </c>
       <c r="D25" t="n">
-        <v>271.2493253977864</v>
+        <v>250.9364633659154</v>
       </c>
       <c r="E25" t="n">
-        <v>271.2493253977864</v>
+        <v>121.6103248773125</v>
       </c>
       <c r="F25" t="n">
-        <v>271.2493253977864</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>229.0481448185522</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968147</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
@@ -6163,34 +6163,34 @@
         <v>1392.785511104607</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066636</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949932</v>
+        <v>1439.454407940589</v>
       </c>
       <c r="U25" t="n">
-        <v>987.5796692572804</v>
+        <v>1168.912724247937</v>
       </c>
       <c r="V25" t="n">
-        <v>751.4821361451839</v>
+        <v>1168.912724247937</v>
       </c>
       <c r="W25" t="n">
-        <v>480.6519212020135</v>
+        <v>898.0825093047669</v>
       </c>
       <c r="X25" t="n">
-        <v>271.2493253977864</v>
+        <v>898.0825093047669</v>
       </c>
       <c r="Y25" t="n">
-        <v>271.2493253977864</v>
+        <v>695.876885255027</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>317.590411465564</v>
+        <v>549.2765120954432</v>
       </c>
       <c r="C28" t="n">
-        <v>317.590411465564</v>
+        <v>398.9272842613265</v>
       </c>
       <c r="D28" t="n">
-        <v>317.590411465564</v>
+        <v>267.397599942781</v>
       </c>
       <c r="E28" t="n">
-        <v>317.590411465564</v>
+        <v>267.397599942781</v>
       </c>
       <c r="F28" t="n">
-        <v>317.590411465564</v>
+        <v>267.397599942781</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0020448791749</v>
+        <v>267.397599942781</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>135.5665465845146</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L28" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968146</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q28" t="n">
         <v>1644.652868057293</v>
@@ -6409,25 +6409,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.319813066636</v>
+        <v>1463.319813066635</v>
       </c>
       <c r="T28" t="n">
-        <v>1258.121352949932</v>
+        <v>1258.121352949931</v>
       </c>
       <c r="U28" t="n">
-        <v>987.5796692572803</v>
+        <v>987.5796692572796</v>
       </c>
       <c r="V28" t="n">
-        <v>751.4821361451837</v>
+        <v>751.4821361451831</v>
       </c>
       <c r="W28" t="n">
-        <v>480.6519212020135</v>
+        <v>751.4821361451831</v>
       </c>
       <c r="X28" t="n">
-        <v>480.6519212020135</v>
+        <v>751.4821361451831</v>
       </c>
       <c r="Y28" t="n">
-        <v>480.6519212020135</v>
+        <v>549.2765120954432</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>476.4477855144902</v>
+        <v>185.9581488078887</v>
       </c>
       <c r="C31" t="n">
-        <v>476.4477855144902</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>476.4477855144902</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>347.1216470258873</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>218.8186546217673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>218.8186546217673</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116194</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L31" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422077</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968146</v>
+        <v>851.9322746968143</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q31" t="n">
         <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S31" t="n">
-        <v>1463.319813066636</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T31" t="n">
-        <v>1463.319813066636</v>
+        <v>1165.633204605547</v>
       </c>
       <c r="U31" t="n">
-        <v>1192.778129373984</v>
+        <v>895.0915209128957</v>
       </c>
       <c r="V31" t="n">
-        <v>956.6805962618876</v>
+        <v>658.993987800799</v>
       </c>
       <c r="W31" t="n">
-        <v>685.8503813187173</v>
+        <v>388.1637728576286</v>
       </c>
       <c r="X31" t="n">
-        <v>476.4477855144902</v>
+        <v>388.1637728576286</v>
       </c>
       <c r="Y31" t="n">
-        <v>476.4477855144902</v>
+        <v>185.9581488078887</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
         <v>320.884739850451</v>
@@ -6859,10 +6859,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E35" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872892</v>
       </c>
       <c r="G35" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922883</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I35" t="n">
         <v>76.14971665211002</v>
@@ -6938,25 +6938,25 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>868.2168169432326</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L35" t="n">
-        <v>1474.738596518646</v>
+        <v>1248.917014541578</v>
       </c>
       <c r="M35" t="n">
-        <v>1826.996552080633</v>
+        <v>1863.568522949378</v>
       </c>
       <c r="N35" t="n">
-        <v>2189.568218016799</v>
+        <v>2659.113644053409</v>
       </c>
       <c r="O35" t="n">
-        <v>2895.591279040995</v>
+        <v>3365.136705077605</v>
       </c>
       <c r="P35" t="n">
-        <v>3460.491244296798</v>
+        <v>3611.45594924364</v>
       </c>
       <c r="Q35" t="n">
-        <v>3807.4858326055</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R35" t="n">
         <v>3807.4858326055</v>
@@ -6977,10 +6977,10 @@
         <v>2869.258029643029</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J36" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K36" t="n">
-        <v>528.5310626619803</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L36" t="n">
-        <v>1142.428132418869</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M36" t="n">
-        <v>1449.748265698831</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N36" t="n">
-        <v>1779.610893362863</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O36" t="n">
-        <v>2059.150958581561</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q36" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R36" t="n">
         <v>2602.506130567962</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001445</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422752</v>
+        <v>299.8173650422756</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021369</v>
+        <v>200.4621344021373</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901213</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I37" t="n">
         <v>76.14971665211002</v>
@@ -7096,22 +7096,22 @@
         <v>155.9829803443641</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173201</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M37" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N37" t="n">
         <v>1365.793566308212</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P37" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q37" t="n">
         <v>2017.453465576481</v>
@@ -7123,7 +7123,7 @@
         <v>1844.098534133941</v>
       </c>
       <c r="T37" t="n">
-        <v>1689.133209963487</v>
+        <v>1689.133209963488</v>
       </c>
       <c r="U37" t="n">
         <v>1468.824662217087</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963448</v>
+        <v>903.193726196345</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928557</v>
+        <v>751.221238092856</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.7913636872897</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922889</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K38" t="n">
-        <v>868.2168169432326</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L38" t="n">
-        <v>1156.336370582085</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M38" t="n">
-        <v>1508.594326144071</v>
+        <v>1754.673279528664</v>
       </c>
       <c r="N38" t="n">
-        <v>2189.568218016799</v>
+        <v>2508.148939106567</v>
       </c>
       <c r="O38" t="n">
-        <v>2895.591279040995</v>
+        <v>3214.172000130763</v>
       </c>
       <c r="P38" t="n">
         <v>3460.491244296798</v>
@@ -7217,7 +7217,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J39" t="n">
-        <v>117.6407938174676</v>
+        <v>242.4709188044724</v>
       </c>
       <c r="K39" t="n">
-        <v>528.5310626619803</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L39" t="n">
-        <v>775.2961905684443</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M39" t="n">
-        <v>1082.616323848406</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N39" t="n">
-        <v>1412.478951512439</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O39" t="n">
-        <v>1776.466079419201</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q39" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026574</v>
+        <v>638.3928643026566</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147907</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424968</v>
+        <v>456.980224042496</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001443</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422756</v>
+        <v>299.817365042275</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021373</v>
+        <v>200.4621344021367</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173196</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567932</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
         <v>1027.79888605232</v>
@@ -7351,31 +7351,31 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R40" t="n">
-        <v>1975.198453178348</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V40" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W40" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963443</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928552</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E41" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872888</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922883</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
         <v>89.93481253402931</v>
@@ -7412,13 +7412,13 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2168169432326</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L41" t="n">
-        <v>1569.820972987031</v>
+        <v>973.7389226429956</v>
       </c>
       <c r="M41" t="n">
-        <v>2203.988731530751</v>
+        <v>1771.015276362886</v>
       </c>
       <c r="N41" t="n">
         <v>2566.560397466917</v>
@@ -7442,19 +7442,19 @@
         <v>3600.244041813157</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176631</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V41" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>212.7178686028331</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>623.6081374473457</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L42" t="n">
-        <v>870.3732653538098</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M42" t="n">
-        <v>1177.693398633771</v>
+        <v>1281.843752318453</v>
       </c>
       <c r="N42" t="n">
-        <v>1507.556026297804</v>
+        <v>2030.810682109832</v>
       </c>
       <c r="O42" t="n">
-        <v>1787.096091516501</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P42" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q42" t="n">
         <v>2602.506130567962</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026568</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147909</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424962</v>
+        <v>456.9802240424964</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001442</v>
+        <v>377.8872215001444</v>
       </c>
       <c r="F43" t="n">
-        <v>299.817365042275</v>
+        <v>299.8173650422751</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021371</v>
+        <v>200.4621344021368</v>
       </c>
       <c r="H43" t="n">
         <v>118.8642169901215</v>
@@ -7573,7 +7573,7 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L43" t="n">
-        <v>688.7815720567929</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
         <v>1027.79888605232</v>
@@ -7603,16 +7603,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V43" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W43" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963445</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928554</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462138</v>
       </c>
       <c r="C44" t="n">
-        <v>1625.370946561769</v>
+        <v>1625.370946561768</v>
       </c>
       <c r="D44" t="n">
         <v>1335.92533899506</v>
@@ -7634,13 +7634,13 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F44" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G44" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H44" t="n">
-        <v>89.93481253402933</v>
+        <v>89.93481253402928</v>
       </c>
       <c r="I44" t="n">
         <v>76.14971665211002</v>
@@ -7649,25 +7649,25 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K44" t="n">
-        <v>547.3128584977795</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L44" t="n">
-        <v>1248.917014541578</v>
+        <v>1569.820972987031</v>
       </c>
       <c r="M44" t="n">
-        <v>1601.174970103564</v>
+        <v>1981.207117116192</v>
       </c>
       <c r="N44" t="n">
-        <v>2130.341082210336</v>
+        <v>2776.752238220222</v>
       </c>
       <c r="O44" t="n">
-        <v>2836.364143234531</v>
+        <v>3105.7831197943</v>
       </c>
       <c r="P44" t="n">
-        <v>3401.264108490334</v>
+        <v>3670.683085050103</v>
       </c>
       <c r="Q44" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R44" t="n">
         <v>3807.4858326055</v>
@@ -7679,19 +7679,19 @@
         <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
-        <v>3415.449390176633</v>
+        <v>3415.449390176632</v>
       </c>
       <c r="V44" t="n">
-        <v>3153.206593873103</v>
+        <v>3153.206593873102</v>
       </c>
       <c r="W44" t="n">
-        <v>2869.25802964303</v>
+        <v>2869.258029643029</v>
       </c>
       <c r="X44" t="n">
-        <v>2564.612362421991</v>
+        <v>2564.61236242199</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.293121486219</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>242.4709188044724</v>
       </c>
       <c r="K45" t="n">
-        <v>612.9781253500456</v>
+        <v>653.361187648985</v>
       </c>
       <c r="L45" t="n">
-        <v>859.7432532565097</v>
+        <v>900.1263155554491</v>
       </c>
       <c r="M45" t="n">
-        <v>1167.063386536471</v>
+        <v>1207.446448835411</v>
       </c>
       <c r="N45" t="n">
-        <v>1496.926014200504</v>
+        <v>1537.309076499444</v>
       </c>
       <c r="O45" t="n">
-        <v>1776.466079419201</v>
+        <v>1816.849141718141</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026574</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147913</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424966</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F46" t="n">
-        <v>299.8173650422755</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G46" t="n">
         <v>200.4621344021371</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901215</v>
+        <v>118.8642169901214</v>
       </c>
       <c r="I46" t="n">
         <v>76.14971665211002</v>
@@ -7810,10 +7810,10 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567934</v>
       </c>
       <c r="M46" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N46" t="n">
         <v>1365.793566308212</v>
@@ -7831,25 +7831,25 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
-        <v>1282.960265051241</v>
+        <v>1282.96026505124</v>
       </c>
       <c r="W46" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.221238092856</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>343.3566784943937</v>
       </c>
       <c r="O3" t="n">
-        <v>198.6880201340531</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>142.6039546023699</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>95.77824488244696</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>434.0896122856901</v>
+        <v>434.0896122856906</v>
       </c>
       <c r="N6" t="n">
-        <v>421.9761166209639</v>
+        <v>421.9761166209644</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>314.2910971752796</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>96.35422033900042</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>114.8336753070147</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>19.14409596997092</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>223.6742649934479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>62.79465928983126</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>29.47535963978211</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>85.30006332127817</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>321.6184100369308</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>265.0439927735498</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>43.65987261462459</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>321.6184100369309</v>
+        <v>394.8525188300371</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>139.7035459660241</v>
       </c>
       <c r="M41" t="n">
-        <v>284.7573767492257</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>423.3376789165118</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>59.72544299714588</v>
       </c>
       <c r="N44" t="n">
-        <v>168.2772183541467</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>223.6742649934479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>2.855806223581112</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>80.889888730747</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>36.36967168090959</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>212.8520662984966</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>81.07318557161049</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>79.43092547709148</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.5585388792628</v>
+        <v>61.34209567542488</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>102.8706613972225</v>
       </c>
       <c r="G25" t="n">
-        <v>106.3133141470836</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141961</v>
+        <v>92.01815992141962</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094042</v>
+        <v>91.56326686094043</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>128.0328771037168</v>
@@ -24613,13 +24613,13 @@
         <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>60.43563893998333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141961</v>
+        <v>54.05219934843321</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094042</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X28" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.4308946390849</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>60.99208878164869</v>
       </c>
       <c r="D31" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037169</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>148.0924829205252</v>
+        <v>148.0924829205253</v>
       </c>
       <c r="H31" t="n">
-        <v>10.12719529481715</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141961</v>
+        <v>92.01815992141965</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094042</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26317,40 +26317,40 @@
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524996</v>
       </c>
       <c r="E2" t="n">
-        <v>273720.3418163964</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="F2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="G2" t="n">
         <v>273720.3418163962</v>
       </c>
       <c r="H2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="I2" t="n">
+        <v>277405.3932581606</v>
+      </c>
+      <c r="J2" t="n">
         <v>277405.3932581609</v>
       </c>
-      <c r="J2" t="n">
-        <v>277405.3932581603</v>
-      </c>
       <c r="K2" t="n">
-        <v>277405.3932581608</v>
+        <v>277405.3932581607</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524989</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524994</v>
@@ -26366,10 +26366,10 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794623</v>
+        <v>72744.75223794724</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936412</v>
+        <v>348321.8962936403</v>
       </c>
       <c r="E3" t="n">
         <v>525160.036476896</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428192</v>
+        <v>14720.86843428188</v>
       </c>
       <c r="J3" t="n">
         <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303575</v>
+        <v>16913.40047303591</v>
       </c>
       <c r="L3" t="n">
         <v>123915.6258741632</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762902</v>
+        <v>69175.08933762896</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428193</v>
+        <v>14720.86843428186</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211191</v>
+        <v>296337.3092211188</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="G4" t="n">
         <v>43561.42148316556</v>
@@ -26442,22 +26442,22 @@
         <v>49616.2956545644</v>
       </c>
       <c r="K4" t="n">
-        <v>49616.29565456438</v>
+        <v>49616.29565456439</v>
       </c>
       <c r="L4" t="n">
         <v>65980.20872448602</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766788</v>
+        <v>99837.12979766783</v>
       </c>
       <c r="N4" t="n">
         <v>99837.12979766788</v>
       </c>
       <c r="O4" t="n">
-        <v>99837.12979766782</v>
+        <v>99837.12979766786</v>
       </c>
       <c r="P4" t="n">
-        <v>99837.12979766788</v>
+        <v>99837.12979766789</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049158</v>
+        <v>56410.20653049165</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,13 +26479,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>93534.28680921868</v>
@@ -26494,10 +26494,10 @@
         <v>93534.28680921868</v>
       </c>
       <c r="K5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>81703.90096581174</v>
@@ -26522,46 +26522,46 @@
         <v>-207037.0699480061</v>
       </c>
       <c r="C6" t="n">
-        <v>-138127.6485370576</v>
+        <v>-138127.6485370584</v>
       </c>
       <c r="D6" t="n">
-        <v>-336022.951296981</v>
+        <v>-336022.95129698</v>
       </c>
       <c r="E6" t="n">
-        <v>-386988.4420923818</v>
+        <v>-387085.9012183541</v>
       </c>
       <c r="F6" t="n">
-        <v>138171.594384514</v>
+        <v>138074.1352585419</v>
       </c>
       <c r="G6" t="n">
-        <v>138171.594384514</v>
+        <v>138074.1352585418</v>
       </c>
       <c r="H6" t="n">
-        <v>138171.594384514</v>
+        <v>138074.1352585419</v>
       </c>
       <c r="I6" t="n">
-        <v>119533.9423600959</v>
+        <v>119462.805030136</v>
       </c>
       <c r="J6" t="n">
-        <v>62000.11592323818</v>
+        <v>61928.97859327913</v>
       </c>
       <c r="K6" t="n">
-        <v>117341.410321342</v>
+        <v>117270.2729913821</v>
       </c>
       <c r="L6" t="n">
-        <v>-246.3209661757282</v>
+        <v>-246.320966175248</v>
       </c>
       <c r="M6" t="n">
-        <v>36648.49935139084</v>
+        <v>36648.49935139077</v>
       </c>
       <c r="N6" t="n">
-        <v>91102.72025473791</v>
+        <v>91102.72025473797</v>
       </c>
       <c r="O6" t="n">
-        <v>105823.5886890199</v>
+        <v>105823.5886890198</v>
       </c>
       <c r="P6" t="n">
-        <v>105823.5886890198</v>
+        <v>105823.5886890197</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020271</v>
+        <v>91.59216845020352</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26747,7 +26747,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690323</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678825</v>
+        <v>49.73080458678835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285242</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107741</v>
+        <v>56.57090773107822</v>
       </c>
       <c r="D3" t="n">
-        <v>286.151495766884</v>
+        <v>286.1514957668832</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370135</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667687</v>
+        <v>65.71679646667772</v>
       </c>
       <c r="D4" t="n">
-        <v>332.4139625855233</v>
+        <v>332.4139625855224</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27036,13 +27036,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.7167964666771</v>
+        <v>65.71679646667772</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855231</v>
+        <v>332.4139625855227</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968195</v>
+        <v>277.5841853968193</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.4010855428524</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667687</v>
+        <v>65.71679646667772</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855233</v>
+        <v>332.4139625855224</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>178.7993369999962</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27430,7 +27430,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>365.4788271569877</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>58.0592877770693</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.4146631354574</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>124.8540578807223</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>88.89425643449839</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>50.57846144115931</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>65.00273557267917</v>
+        <v>110.3716397705573</v>
       </c>
       <c r="G5" t="n">
-        <v>310.2738298708647</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>196.2804842470834</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>126.7395639656317</v>
       </c>
       <c r="S5" t="n">
-        <v>200.6294905367619</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3161961300435</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>7.367658548379836</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>137.1465075933366</v>
       </c>
       <c r="H6" t="n">
-        <v>110.3327465485026</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373497</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.543647692526761</v>
+        <v>87.92595927923671</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3706418758996</v>
+        <v>48.26761828982495</v>
       </c>
       <c r="U6" t="n">
         <v>225.9284209250621</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.4282935987362</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,10 +27795,10 @@
         <v>150.4834766775325</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475104</v>
+        <v>4.355323820337389</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>3.080181780086122</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571378</v>
+        <v>72.33162581571365</v>
       </c>
       <c r="R7" t="n">
-        <v>169.8669181779121</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>221.1382015301028</v>
+        <v>221.1382015301027</v>
       </c>
       <c r="T7" t="n">
         <v>227.2398792779275</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>223.9267025376</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>338.7761146022501</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>79.24668876554641</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>126.8078458035252</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285235</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285234</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285233</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964199</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964153</v>
+        <v>68.13189012964199</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964168</v>
       </c>
       <c r="V41" t="n">
         <v>68.13189012964065</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964176</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964213</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128749</v>
+        <v>0.3682097224128782</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660856</v>
+        <v>3.77092781966089</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332237</v>
+        <v>14.1954053233225</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992763977</v>
+        <v>31.25133992764005</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737677</v>
+        <v>46.83765747737719</v>
       </c>
       <c r="L5" t="n">
-        <v>58.10625576966981</v>
+        <v>58.10625576967032</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542062977</v>
+        <v>64.65440542063034</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443535</v>
+        <v>65.70058129443593</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719233</v>
+        <v>62.03919586719287</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512447</v>
+        <v>52.94901834512494</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121338</v>
+        <v>39.76250766121372</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551778</v>
+        <v>23.12955397551798</v>
       </c>
       <c r="S5" t="n">
-        <v>8.390579049483396</v>
+        <v>8.39057904948347</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862361</v>
+        <v>1.611838059862375</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779302999</v>
+        <v>0.02945677779303025</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740209</v>
+        <v>0.1970095698740227</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993834</v>
+        <v>1.902697687993851</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680107</v>
+        <v>6.783004927680167</v>
       </c>
       <c r="J6" t="n">
-        <v>18.61308396779073</v>
+        <v>18.61308396779089</v>
       </c>
       <c r="K6" t="n">
-        <v>31.81272514935013</v>
+        <v>31.81272514935041</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742722</v>
+        <v>42.7761348974276</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536047</v>
+        <v>49.91773180536091</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140161</v>
+        <v>51.23890563140206</v>
       </c>
       <c r="O6" t="n">
-        <v>46.87358831998251</v>
+        <v>46.87358831998293</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707532949</v>
+        <v>37.62018707532982</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.1480987790066</v>
+        <v>25.14809877900683</v>
       </c>
       <c r="R6" t="n">
-        <v>12.23187487340632</v>
+        <v>12.23187487340643</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703851</v>
+        <v>3.659366352703883</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7940868189220401</v>
+        <v>0.7940868189220472</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01296115591276454</v>
+        <v>0.01296115591276465</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020049</v>
+        <v>0.1651662054020063</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119644</v>
+        <v>1.468477717119657</v>
       </c>
       <c r="I7" t="n">
-        <v>4.966998249725748</v>
+        <v>4.966998249725791</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192174</v>
+        <v>11.67725072192185</v>
       </c>
       <c r="K7" t="n">
-        <v>19.18931004579656</v>
+        <v>19.18931004579673</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040353</v>
+        <v>24.55571021040375</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224336</v>
+        <v>25.89055345224359</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938136</v>
+        <v>25.27493395938158</v>
       </c>
       <c r="O7" t="n">
-        <v>23.3454923780943</v>
+        <v>23.3454923780945</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789338</v>
+        <v>19.97610178789356</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598061</v>
+        <v>13.83041743598073</v>
       </c>
       <c r="R7" t="n">
-        <v>7.426473199257416</v>
+        <v>7.426473199257482</v>
       </c>
       <c r="S7" t="n">
-        <v>2.878396506869484</v>
+        <v>2.878396506869509</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540206</v>
+        <v>0.7057101503540268</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009009065749200275</v>
+        <v>0.009009065749200355</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315784</v>
@@ -34784,19 +34784,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>231.6067186693945</v>
       </c>
       <c r="O3" t="n">
-        <v>74.01440144649911</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302726</v>
+        <v>19.30205057302753</v>
       </c>
       <c r="K5" t="n">
-        <v>150.893219003561</v>
+        <v>150.8932190035614</v>
       </c>
       <c r="L5" t="n">
-        <v>240.001055350133</v>
+        <v>240.0010553501335</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861895</v>
+        <v>283.8217056861901</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098286</v>
+        <v>273.6344421098292</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082509</v>
+        <v>212.7411657082515</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613376</v>
+        <v>143.5147307613381</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666857</v>
+        <v>29.77180844666892</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.86649264153287</v>
+        <v>17.86649264153303</v>
       </c>
       <c r="K6" t="n">
-        <v>36.57524077736099</v>
+        <v>158.43652318757</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>275.0621004210126</v>
       </c>
       <c r="M6" t="n">
-        <v>341.8733101690323</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="N6" t="n">
-        <v>341.8733101690323</v>
+        <v>341.8733101690332</v>
       </c>
       <c r="O6" t="n">
-        <v>298.1396631522676</v>
+        <v>218.5684410508181</v>
       </c>
       <c r="P6" t="n">
-        <v>222.1085483009364</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.24361242883418</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547071967</v>
+        <v>52.14573547071988</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408394</v>
+        <v>65.47443041408417</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633860995</v>
+        <v>69.40710633861018</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213397</v>
+        <v>47.93062029213418</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278687</v>
+        <v>17.25466105278705</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35498,16 +35498,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>226.2375109014956</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36294,7 +36294,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187476</v>
@@ -36376,7 +36376,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
         <v>59.8253897034981</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841791</v>
+        <v>30.90885570841789</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
@@ -36528,13 +36528,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P25" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472712</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>374.2497035813871</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841791</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36765,13 +36765,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P28" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472713</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>345.1583615309394</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841791</v>
+        <v>30.90885570841786</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37002,13 +37002,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P31" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472713</v>
+        <v>57.62678551472709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>180.0507982277213</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>367.6637655623863</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L35" t="n">
-        <v>612.6482621973876</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>355.8161167292792</v>
+        <v>620.860109502829</v>
       </c>
       <c r="N35" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>250.7532875461493</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>355.8161167292792</v>
       </c>
       <c r="N38" t="n">
-        <v>687.8524160330586</v>
+        <v>761.0865248261648</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>430.7333981264809</v>
       </c>
       <c r="M41" t="n">
-        <v>640.5734934785049</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>332.3544258324018</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145247</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>204.5443435591683</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292792</v>
+        <v>415.5415597264251</v>
       </c>
       <c r="N44" t="n">
-        <v>534.5112243502743</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>374.2497035813871</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
